--- a/biology/Botanique/Urfé_(IGP)/Urfé_(IGP).xlsx
+++ b/biology/Botanique/Urfé_(IGP)/Urfé_(IGP).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Urf%C3%A9_(IGP)</t>
+          <t>Urfé_(IGP)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-L’urfé, appelé vin de pays d'Urfé jusqu'en 2009, est un vin français d'indication géographique protégée[2] de zone, produit dans le département de la Loire, en région Auvergne-Rhône-Alpes.
+L’urfé, appelé vin de pays d'Urfé jusqu'en 2009, est un vin français d'indication géographique protégée de zone, produit dans le département de la Loire, en région Auvergne-Rhône-Alpes.
 Les aires de production des appellations côte roannaise et côtes-du-forez occupent une partie de cette zone mais sont réservées uniquement aux vins rouges et rosés secs produits avec le cépage gamay noir N.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Urf%C3%A9_(IGP)</t>
+          <t>Urfé_(IGP)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'indication tire son nom du château et de la famille d'Urfé, dont l'un des plus célèbres membres est Honoré d'Urfé, auteur de L'Astrée, premier roman-fleuve de la littérature française au XVIIe siècle dont l'intrigue se déroule largement dans la zone concernée par l'IGP.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Urf%C3%A9_(IGP)</t>
+          <t>Urfé_(IGP)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,18 +560,23 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Aire de l'IGP
-Zone principale[N 2]
-Pour bénéficier de l’indication géographique protégée « Urfé », la récolte des raisins, la vinification et l’élaboration des vins doivent être réalisées sur l'une des 159 communes de la Loire suivante : 
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Zone principale[N 2]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour bénéficier de l’indication géographique protégée « Urfé », la récolte des raisins, la vinification et l’élaboration des vins doivent être réalisées sur l'une des 159 communes de la Loire suivante : 
 Ailleux, Ambierle, Amions, Andrézieux-Bouthéon, Arthun, Aveizieux, Balbigny, Bard, Bellegarde-en-Forez, Boën-sur-Lignon, Boisset-lès-Montrond, Boisset-Saint-Priest, Bonson, Boyer, Briennon, Bully, Bussières, Bussy-Albieux, Cezay, Chalain-d'Uzore, Chalain-le-Comtal, Chalmazel, Chambles, Chambœuf, Champdieu, Chandon, Changy,  Charlieu, Châtelneuf, Chazelles-sur-Lavieu, Chenereilles, Combre, Commelle-Vernay, Cordelle, Coteau, Coutouvre, Craintilleux, Crozet, Cuzieu, Dancé, Débats-Rivière-d'Orpra, Écotay-l'Olme, Essertines-en-Châtelneuf, Grézieux-le-Fromental, Grézolles, Gumières, Jarnosse, Jeansagnière, L'Hôpital-le-Grand, L'Hôpital-sous-Rochefort, La Bénisson-Dieu, La Chapelle-en-Lafaye,La Pacaudière, Lavieu, Leigneux, Lentigny, Lérigneux, Lézigneux, Luré, Luriecq, Mably, Magneux-Haute-Rive, Maizilly, Marcilly-le-Châtel, Marcoux, Margerie-Chantagret, Marols, Mars, Montagny, Montarcher, Montbrison, Montrond-les-Bains, Montverdun, Mornand-en-Forez, Nandax, Néronde, Neulise, Noailly, Nollieux, Notre-Dame-de-Boisset, Ouches, Palogneux, Parigny, Périgneux, Pinay, Pommiers, Pouilly-les-Nonains, Pouilly-sous-Charlieu, Pradines, Pralong, Précieux, Renaison, Riorges, Rivas, Roche, Sail-sous-Couzan, Sainte-Agathe-en-Donzy, Sainte-Agathe-la-Bouteresse, Saint-Alban-les-Eaux, Saint-André-d'Apchon, Saint-André-le-Puy, Saint-Bonnet-des-Quarts, Saint-Bonnet-le-Courreau, Saint-Bonnet-les-Oules, Sainte-Colombe-sur-Gand, Saint-Cyprien, Saint-Cyr-de-Favières, Saint-Cyr-de-Valorges, Saint-Denis-de-Cabanne, Saint-Étienne-le-Molard, Saint-Forgeux-Lespinasse, Sainte-Foy-Saint-Sulpice, Saint-Galmier, Saint-Georges-de-Baroille, Saint-Georges-en-Couzan, Saint-Georges-Haute-Ville, Saint-Germain-Laval, Saint-Germain-Lespinasse, Saint-Haon-le-Châtel, Saint-Haon-le-Vieux, Saint-Hilaire-sous-Charlieu, Saint-Jean-Soleymieux, Saint-Jodard, Saint-Julien-d'Oddes, Saint-Just-en-Bas, Saint-Laurent-Rochefort, Saint-Léger-sur-Roanne, Saint-Marcel-de-Félines, Saint-Marcellin-en-Forez, Saint-Martin-la-Sauveté, Saint-Maurice-sur-Loire, Saint-Nizier-sous-Charlieu, Saint-Paul-de-Vézelin, Saint-Paul-d'Uzore, Saint-Pierre-la-Noaille, Saint-Polgues, Saint-Priest-la-Roche, Saint-Just-Saint-Rambert, Saint-Romain-la-Motte, Saint-Romain-le-Puy, Saint-Sixte, Saint-Thomas-la-Garde, Saint-Vincent-de-Boisset, Sauvain, Savigneux, Soleymieux, Souternon, Sury-le-Comtal, Trelins, Unias, Veauche, Veauchette, Vendranges, Verrières-en-Forez, Villemontais, Villerest, Villers, Violay, Vougy.
 Appellation Urfé Ambierle
 18 communes peuvent bénéficier de l'appellation Ambierle : Arthun, Bellegarde-en-Forez, Boën, Bussy-Albieux, Champdieu, Ecotay-l'Olme, Leigneux, Lézigneux, Marcilly-le-Châtel, Marcoux, Montbrison, Pouilly-les-Nonains, Pralong, Saint-Germain-Laval, Saint-Georges-Haute-Ville, Saint-Sixte, Saint-Thomas-la-Garde, Sainte-Agathe-la-Bouteresse, Trelins et Villemontais.
 Appellation Urfé Trelins
 Une seule commune peut bénéficier de l'appellation Trelins : Trelins.
-Zone de proximité immédiate[N 3]
-La zone de proximité est constituée par l'ensemble des communes se situant dans les cantons de Chazelles-sur-Lyon, de Saint-Héand , de Saint-Bonnet-le-Château et de Feurs. Ainsi que par les communes de : La Chapelle-en-Lafaye, Montarcher, Saint-Jean-Soleymieux, Chazelles-sur-Lavieu, Gumières, Verrières-en-Forez, Lérigneux, Roche, Sauvain, Chalmazel, Saint-Just-en-Bas, Saint-Didier-sur-Rochefort, Saint-Thurin, Champoly, Saint-Marcel-d'Urfé, Juré, Cremeaux, Cherier, Arcon, Les Noës, Saint-Rirand, Régny et Neaux.
-Orographie et géologie
-Climat</t>
+</t>
         </is>
       </c>
     </row>
@@ -567,7 +586,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Urf%C3%A9_(IGP)</t>
+          <t>Urfé_(IGP)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,10 +601,53 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Aire de l'IGP</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Zone de proximité immédiate[N 3]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La zone de proximité est constituée par l'ensemble des communes se situant dans les cantons de Chazelles-sur-Lyon, de Saint-Héand , de Saint-Bonnet-le-Château et de Feurs. Ainsi que par les communes de : La Chapelle-en-Lafaye, Montarcher, Saint-Jean-Soleymieux, Chazelles-sur-Lavieu, Gumières, Verrières-en-Forez, Lérigneux, Roche, Sauvain, Chalmazel, Saint-Just-en-Bas, Saint-Didier-sur-Rochefort, Saint-Thurin, Champoly, Saint-Marcel-d'Urfé, Juré, Cremeaux, Cherier, Arcon, Les Noës, Saint-Rirand, Régny et Neaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Urfé_(IGP)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urf%C3%A9_(IGP)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Vins Rouges et rosés :
 gamay, pinot noir, syrah doivent représenter 70 % de l'encépagement.
@@ -597,44 +659,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Urf%C3%A9_(IGP)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Urf%C3%A9_(IGP)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Production actuelle</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production actuelle, environ 1000 hl, revient essentiellement aux viticulteurs des côtes du Forez et de la côte roannaise, désireux de diversifier leurs gammes. Ceux-ci produisent essentiellement du chardonnay et du gamay, avec un intérêt récent pour les autres cépages autorisés notamment viognier et roussanne sur la Côte roannaise.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Urf%C3%A9_(IGP)</t>
+          <t>Urfé_(IGP)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -649,24 +680,62 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Production actuelle</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production actuelle, environ 1000 hl, revient essentiellement aux viticulteurs des côtes du Forez et de la côte roannaise, désireux de diversifier leurs gammes. Ceux-ci produisent essentiellement du chardonnay et du gamay, avec un intérêt récent pour les autres cépages autorisés notamment viognier et roussanne sur la Côte roannaise.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Urfé_(IGP)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Urf%C3%A9_(IGP)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Types de vin et gastronomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Types de vin
-Il existe 11 labellisations différentes :
-Urfé blanc[3]
-Urfé rosé[4]
-Urfé rouge[5]
-Urfé Ambierle rosé[6]
-Urfé mousseux blanc[7]
-Urfé mousseux rosé[8]
-Urfé mousseux rouge[9]
-Urfé surmûri blanc[10]
-Urfé surmûri rosé[11]
-Urfé surmûri rouge[12]
-Urfé Trelins rosé[13]</t>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Types de vin</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Il existe 11 labellisations différentes :
+Urfé blanc
+Urfé rosé
+Urfé rouge
+Urfé Ambierle rosé
+Urfé mousseux blanc
+Urfé mousseux rosé
+Urfé mousseux rouge
+Urfé surmûri blanc
+Urfé surmûri rosé
+Urfé surmûri rouge
+Urfé Trelins rosé</t>
         </is>
       </c>
     </row>
